--- a/вариант 2024 2025/Ишимов/18 (3).xlsx
+++ b/вариант 2024 2025/Ишимов/18 (3).xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\jakov\вариант 2024 2025\Ишимов\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="765" windowWidth="28755" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="765" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -237,7 +232,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,7 +267,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -481,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W42"/>
+  <dimension ref="A1:AB42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V28" sqref="V28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB36" sqref="AB36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1821,85 +1816,85 @@
         <v>131</v>
       </c>
       <c r="B23" s="5">
-        <f>MIN(B22,A23)+B2</f>
-        <v>117</v>
+        <f>MAX(B22,A23)+B2</f>
+        <v>149</v>
       </c>
       <c r="C23" s="5">
-        <f>MIN(C22,B23)+C2</f>
-        <v>197</v>
+        <f>MAX(C22,B23)+C2</f>
+        <v>229</v>
       </c>
       <c r="D23" s="5">
-        <f>MIN(D22,C23)+D2</f>
-        <v>273</v>
+        <f>MAX(D22,C23)+D2</f>
+        <v>305</v>
       </c>
       <c r="E23" s="5">
-        <f>MIN(E22,D23)+E2</f>
-        <v>280</v>
+        <f>MAX(E22,D23)+E2</f>
+        <v>324</v>
       </c>
       <c r="F23" s="5">
-        <f>MIN(F22,E23)+F2</f>
-        <v>306</v>
+        <f>MAX(F22,E23)+F2</f>
+        <v>354</v>
       </c>
       <c r="G23" s="5">
-        <f>MIN(G22,F23)+G2</f>
-        <v>344</v>
+        <f>MAX(G22,F23)+G2</f>
+        <v>404</v>
       </c>
       <c r="H23" s="5">
-        <f>MIN(H22,G23)+H2</f>
-        <v>419</v>
+        <f>MAX(H22,G23)+H2</f>
+        <v>479</v>
       </c>
       <c r="I23" s="5">
-        <f>MIN(I22,H23)+I2</f>
-        <v>414</v>
+        <f>MAX(I22,H23)+I2</f>
+        <v>518</v>
       </c>
       <c r="J23" s="5">
-        <f>MIN(J22,I23)+J2</f>
-        <v>432</v>
+        <f>MAX(J22,I23)+J2</f>
+        <v>536</v>
       </c>
       <c r="K23" s="5">
-        <f>MIN(K22,J23)+K2</f>
-        <v>464</v>
+        <f>MAX(K22,J23)+K2</f>
+        <v>568</v>
       </c>
       <c r="L23" s="10">
         <f t="shared" ref="L23:M23" si="1">K23+L2</f>
-        <v>508</v>
+        <v>612</v>
       </c>
       <c r="M23" s="11">
         <f t="shared" si="1"/>
-        <v>596</v>
+        <v>700</v>
       </c>
       <c r="N23" s="19">
         <f t="shared" ref="N23:N27" si="2">N22+N2</f>
         <v>659</v>
       </c>
       <c r="O23" s="5">
-        <f>MIN(O22,N23)+O2</f>
-        <v>709</v>
+        <f>MAX(O22,N23)+O2</f>
+        <v>720</v>
       </c>
       <c r="P23" s="5">
-        <f>MIN(P22,O23)+P2</f>
-        <v>739</v>
+        <f>MAX(P22,O23)+P2</f>
+        <v>778</v>
       </c>
       <c r="Q23" s="5">
-        <f>MIN(Q22,P23)+Q2</f>
-        <v>787</v>
+        <f>MAX(Q22,P23)+Q2</f>
+        <v>826</v>
       </c>
       <c r="R23" s="5">
-        <f>MIN(R22,Q23)+R2</f>
-        <v>828</v>
+        <f>MAX(R22,Q23)+R2</f>
+        <v>896</v>
       </c>
       <c r="S23" s="5">
-        <f>MIN(S22,R23)+S2</f>
-        <v>880</v>
+        <f>MAX(S22,R23)+S2</f>
+        <v>992</v>
       </c>
       <c r="T23" s="6">
-        <f>MIN(T22,S23)+T2</f>
-        <v>878</v>
+        <f>MAX(T22,S23)+T2</f>
+        <v>1011</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
-        <f t="shared" ref="A24:B41" si="3">A23+A3</f>
+        <f t="shared" ref="A24:A41" si="3">A23+A3</f>
         <v>175</v>
       </c>
       <c r="B24" s="10">
@@ -1911,72 +1906,72 @@
         <v>300</v>
       </c>
       <c r="D24" s="19">
-        <f t="shared" ref="D24:E31" si="5">D23+D3</f>
-        <v>325</v>
+        <f t="shared" ref="D24:D28" si="5">D23+D3</f>
+        <v>357</v>
       </c>
       <c r="E24" s="5">
-        <f>MIN(E23,D24)+E3</f>
-        <v>344</v>
+        <f>MAX(E23,D24)+E3</f>
+        <v>421</v>
       </c>
       <c r="F24" s="5">
-        <f>MIN(F23,E24)+F3</f>
-        <v>337</v>
+        <f>MAX(F23,E24)+F3</f>
+        <v>452</v>
       </c>
       <c r="G24" s="5">
-        <f>MIN(G23,F24)+G3</f>
-        <v>383</v>
+        <f>MAX(G23,F24)+G3</f>
+        <v>498</v>
       </c>
       <c r="H24" s="5">
-        <f>MIN(H23,G24)+H3</f>
-        <v>461</v>
+        <f>MAX(H23,G24)+H3</f>
+        <v>576</v>
       </c>
       <c r="I24" s="5">
-        <f>MIN(I23,H24)+I3</f>
-        <v>507</v>
+        <f>MAX(I23,H24)+I3</f>
+        <v>669</v>
       </c>
       <c r="J24" s="5">
-        <f>MIN(J23,I24)+J3</f>
-        <v>459</v>
+        <f>MAX(J23,I24)+J3</f>
+        <v>696</v>
       </c>
       <c r="K24" s="5">
-        <f>MIN(K23,J24)+K3</f>
-        <v>479</v>
+        <f>MAX(K23,J24)+K3</f>
+        <v>716</v>
       </c>
       <c r="L24" s="5">
-        <f>MIN(L23,K24)+L3</f>
-        <v>559</v>
+        <f>MAX(L23,K24)+L3</f>
+        <v>796</v>
       </c>
       <c r="M24" s="6">
-        <f>MIN(M23,L24)+M3</f>
-        <v>656</v>
+        <f>MAX(M23,L24)+M3</f>
+        <v>893</v>
       </c>
       <c r="N24" s="19">
         <f t="shared" si="2"/>
         <v>706</v>
       </c>
       <c r="O24" s="5">
-        <f>MIN(O23,N24)+O3</f>
-        <v>774</v>
+        <f>MAX(O23,N24)+O3</f>
+        <v>788</v>
       </c>
       <c r="P24" s="5">
-        <f>MIN(P23,O24)+P3</f>
-        <v>762</v>
+        <f>MAX(P23,O24)+P3</f>
+        <v>811</v>
       </c>
       <c r="Q24" s="5">
-        <f>MIN(Q23,P24)+Q3</f>
-        <v>826</v>
+        <f>MAX(Q23,P24)+Q3</f>
+        <v>890</v>
       </c>
       <c r="R24" s="5">
-        <f>MIN(R23,Q24)+R3</f>
-        <v>907</v>
+        <f>MAX(R23,Q24)+R3</f>
+        <v>977</v>
       </c>
       <c r="S24" s="5">
-        <f>MIN(S23,R24)+S3</f>
-        <v>893</v>
+        <f>MAX(S23,R24)+S3</f>
+        <v>1005</v>
       </c>
       <c r="T24" s="6">
-        <f>MIN(T23,S24)+T3</f>
-        <v>946</v>
+        <f>MAX(T23,S24)+T3</f>
+        <v>1079</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1985,80 +1980,80 @@
         <v>267</v>
       </c>
       <c r="B25" s="5">
-        <f>MIN(B24,A25)+B4</f>
-        <v>309</v>
+        <f>MAX(B24,A25)+B4</f>
+        <v>310</v>
       </c>
       <c r="C25" s="6">
-        <f>MIN(C24,B25)+C4</f>
-        <v>391</v>
+        <f>MAX(C24,B25)+C4</f>
+        <v>401</v>
       </c>
       <c r="D25" s="19">
         <f t="shared" si="5"/>
-        <v>417</v>
+        <v>449</v>
       </c>
       <c r="E25" s="5">
-        <f>MIN(E24,D25)+E4</f>
-        <v>408</v>
+        <f>MAX(E24,D25)+E4</f>
+        <v>513</v>
       </c>
       <c r="F25" s="5">
-        <f>MIN(F24,E25)+F4</f>
-        <v>419</v>
+        <f>MAX(F24,E25)+F4</f>
+        <v>595</v>
       </c>
       <c r="G25" s="5">
-        <f>MIN(G24,F25)+G4</f>
-        <v>478</v>
+        <f>MAX(G24,F25)+G4</f>
+        <v>690</v>
       </c>
       <c r="H25" s="5">
-        <f>MIN(H24,G25)+H4</f>
-        <v>545</v>
+        <f>MAX(H24,G25)+H4</f>
+        <v>774</v>
       </c>
       <c r="I25" s="5">
-        <f>MIN(I24,H25)+I4</f>
-        <v>538</v>
+        <f>MAX(I24,H25)+I4</f>
+        <v>805</v>
       </c>
       <c r="J25" s="5">
-        <f>MIN(J24,I25)+J4</f>
-        <v>476</v>
+        <f>MAX(J24,I25)+J4</f>
+        <v>822</v>
       </c>
       <c r="K25" s="5">
-        <f>MIN(K24,J25)+K4</f>
-        <v>513</v>
+        <f>MAX(K24,J25)+K4</f>
+        <v>859</v>
       </c>
       <c r="L25" s="5">
-        <f>MIN(L24,K25)+L4</f>
-        <v>561</v>
+        <f>MAX(L24,K25)+L4</f>
+        <v>907</v>
       </c>
       <c r="M25" s="6">
-        <f>MIN(M24,L25)+M4</f>
-        <v>605</v>
+        <f>MAX(M24,L25)+M4</f>
+        <v>951</v>
       </c>
       <c r="N25" s="19">
         <f t="shared" si="2"/>
         <v>764</v>
       </c>
       <c r="O25" s="5">
-        <f>MIN(O24,N25)+O4</f>
-        <v>820</v>
+        <f>MAX(O24,N25)+O4</f>
+        <v>844</v>
       </c>
       <c r="P25" s="5">
-        <f>MIN(P24,O25)+P4</f>
-        <v>815</v>
+        <f>MAX(P24,O25)+P4</f>
+        <v>897</v>
       </c>
       <c r="Q25" s="5">
-        <f>MIN(Q24,P25)+Q4</f>
-        <v>875</v>
+        <f>MAX(Q24,P25)+Q4</f>
+        <v>957</v>
       </c>
       <c r="R25" s="5">
-        <f>MIN(R24,Q25)+R4</f>
-        <v>890</v>
+        <f>MAX(R24,Q25)+R4</f>
+        <v>992</v>
       </c>
       <c r="S25" s="5">
-        <f>MIN(S24,R25)+S4</f>
-        <v>988</v>
+        <f>MAX(S24,R25)+S4</f>
+        <v>1103</v>
       </c>
       <c r="T25" s="6">
-        <f>MIN(T24,S25)+T4</f>
-        <v>980</v>
+        <f>MAX(T24,S25)+T4</f>
+        <v>1137</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2067,80 +2062,80 @@
         <v>294</v>
       </c>
       <c r="B26" s="5">
-        <f>MIN(B25,A26)+B5</f>
-        <v>372</v>
+        <f>MAX(B25,A26)+B5</f>
+        <v>388</v>
       </c>
       <c r="C26" s="6">
-        <f>MIN(C25,B26)+C5</f>
-        <v>436</v>
+        <f>MAX(C25,B26)+C5</f>
+        <v>465</v>
       </c>
       <c r="D26" s="19">
         <f t="shared" si="5"/>
-        <v>455</v>
+        <v>487</v>
       </c>
       <c r="E26" s="5">
-        <f>MIN(E25,D26)+E5</f>
-        <v>507</v>
+        <f>MAX(E25,D26)+E5</f>
+        <v>612</v>
       </c>
       <c r="F26" s="5">
-        <f>MIN(F25,E26)+F5</f>
-        <v>486</v>
+        <f>MAX(F25,E26)+F5</f>
+        <v>679</v>
       </c>
       <c r="G26" s="5">
-        <f>MIN(G25,F26)+G5</f>
-        <v>524</v>
+        <f>MAX(G25,F26)+G5</f>
+        <v>736</v>
       </c>
       <c r="H26" s="5">
-        <f>MIN(H25,G26)+H5</f>
-        <v>595</v>
+        <f>MAX(H25,G26)+H5</f>
+        <v>845</v>
       </c>
       <c r="I26" s="5">
-        <f>MIN(I25,H26)+I5</f>
-        <v>632</v>
+        <f>MAX(I25,H26)+I5</f>
+        <v>939</v>
       </c>
       <c r="J26" s="5">
-        <f>MIN(J25,I26)+J5</f>
-        <v>494</v>
+        <f>MAX(J25,I26)+J5</f>
+        <v>957</v>
       </c>
       <c r="K26" s="5">
-        <f>MIN(K25,J26)+K5</f>
-        <v>590</v>
+        <f>MAX(K25,J26)+K5</f>
+        <v>1053</v>
       </c>
       <c r="L26" s="5">
-        <f>MIN(L25,K26)+L5</f>
-        <v>599</v>
+        <f>MAX(L25,K26)+L5</f>
+        <v>1091</v>
       </c>
       <c r="M26" s="6">
-        <f>MIN(M25,L26)+M5</f>
-        <v>689</v>
+        <f>MAX(M25,L26)+M5</f>
+        <v>1181</v>
       </c>
       <c r="N26" s="19">
         <f t="shared" si="2"/>
         <v>792</v>
       </c>
       <c r="O26" s="5">
-        <f>MIN(O25,N26)+O5</f>
-        <v>826</v>
+        <f>MAX(O25,N26)+O5</f>
+        <v>878</v>
       </c>
       <c r="P26" s="5">
-        <f>MIN(P25,O26)+P5</f>
-        <v>902</v>
+        <f>MAX(P25,O26)+P5</f>
+        <v>984</v>
       </c>
       <c r="Q26" s="6">
-        <f>MIN(Q25,P26)+Q5</f>
-        <v>909</v>
+        <f>MAX(Q25,P26)+Q5</f>
+        <v>1018</v>
       </c>
       <c r="R26" s="19">
         <f t="shared" ref="R26:R31" si="6">R25+R5</f>
-        <v>978</v>
+        <v>1080</v>
       </c>
       <c r="S26" s="5">
-        <f>MIN(S25,R26)+S5</f>
-        <v>999</v>
+        <f>MAX(S25,R26)+S5</f>
+        <v>1124</v>
       </c>
       <c r="T26" s="6">
-        <f>MIN(T25,S26)+T5</f>
-        <v>1006</v>
+        <f>MAX(T25,S26)+T5</f>
+        <v>1163</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2149,80 +2144,80 @@
         <v>332</v>
       </c>
       <c r="B27" s="5">
-        <f>MIN(B26,A27)+B6</f>
-        <v>380</v>
+        <f>MAX(B26,A27)+B6</f>
+        <v>436</v>
       </c>
       <c r="C27" s="6">
-        <f>MIN(C26,B27)+C6</f>
-        <v>431</v>
+        <f>MAX(C26,B27)+C6</f>
+        <v>516</v>
       </c>
       <c r="D27" s="19">
         <f t="shared" si="5"/>
-        <v>503</v>
+        <v>535</v>
       </c>
       <c r="E27" s="14">
-        <f t="shared" si="5"/>
-        <v>530</v>
+        <f t="shared" ref="E27:E31" si="7">E26+E6</f>
+        <v>635</v>
       </c>
       <c r="F27" s="5">
-        <f>MIN(F26,E27)+F6</f>
-        <v>557</v>
+        <f>MAX(F26,E27)+F6</f>
+        <v>750</v>
       </c>
       <c r="G27" s="5">
-        <f>MIN(G26,F27)+G6</f>
-        <v>605</v>
+        <f>MAX(G26,F27)+G6</f>
+        <v>831</v>
       </c>
       <c r="H27" s="5">
-        <f>MIN(H26,G27)+H6</f>
-        <v>658</v>
+        <f>MAX(H26,G27)+H6</f>
+        <v>908</v>
       </c>
       <c r="I27" s="5">
-        <f>MIN(I26,H27)+I6</f>
-        <v>677</v>
+        <f>MAX(I26,H27)+I6</f>
+        <v>984</v>
       </c>
       <c r="J27" s="5">
-        <f>MIN(J26,I27)+J6</f>
-        <v>546</v>
+        <f>MAX(J26,I27)+J6</f>
+        <v>1036</v>
       </c>
       <c r="K27" s="5">
-        <f>MIN(K26,J27)+K6</f>
-        <v>588</v>
+        <f>MAX(K26,J27)+K6</f>
+        <v>1095</v>
       </c>
       <c r="L27" s="5">
-        <f>MIN(L26,K27)+L6</f>
-        <v>603</v>
+        <f>MAX(L26,K27)+L6</f>
+        <v>1110</v>
       </c>
       <c r="M27" s="6">
-        <f>MIN(M26,L27)+M6</f>
-        <v>648</v>
+        <f>MAX(M26,L27)+M6</f>
+        <v>1226</v>
       </c>
       <c r="N27" s="19">
         <f t="shared" si="2"/>
         <v>874</v>
       </c>
       <c r="O27" s="5">
-        <f>MIN(O26,N27)+O6</f>
-        <v>924</v>
+        <f>MAX(O26,N27)+O6</f>
+        <v>976</v>
       </c>
       <c r="P27" s="5">
-        <f>MIN(P26,O27)+P6</f>
-        <v>934</v>
+        <f>MAX(P26,O27)+P6</f>
+        <v>1016</v>
       </c>
       <c r="Q27" s="6">
-        <f>MIN(Q26,P27)+Q6</f>
-        <v>956</v>
+        <f>MAX(Q26,P27)+Q6</f>
+        <v>1065</v>
       </c>
       <c r="R27" s="19">
         <f t="shared" si="6"/>
-        <v>1008</v>
+        <v>1110</v>
       </c>
       <c r="S27" s="5">
-        <f>MIN(S26,R27)+S6</f>
-        <v>1048</v>
+        <f>MAX(S26,R27)+S6</f>
+        <v>1173</v>
       </c>
       <c r="T27" s="6">
-        <f>MIN(T26,S27)+T6</f>
-        <v>1087</v>
+        <f>MAX(T26,S27)+T6</f>
+        <v>1254</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2231,80 +2226,80 @@
         <v>358</v>
       </c>
       <c r="B28" s="5">
-        <f>MIN(B27,A28)+B7</f>
-        <v>421</v>
+        <f>MAX(B27,A28)+B7</f>
+        <v>499</v>
       </c>
       <c r="C28" s="6">
-        <f>MIN(C27,B28)+C7</f>
-        <v>479</v>
+        <f>MAX(C27,B28)+C7</f>
+        <v>574</v>
       </c>
       <c r="D28" s="19">
         <f t="shared" si="5"/>
-        <v>574</v>
+        <v>606</v>
       </c>
       <c r="E28" s="14">
-        <f t="shared" si="5"/>
-        <v>568</v>
+        <f t="shared" si="7"/>
+        <v>673</v>
       </c>
       <c r="F28" s="5">
-        <f>MIN(F27,E28)+F7</f>
-        <v>587</v>
+        <f>MAX(F27,E28)+F7</f>
+        <v>780</v>
       </c>
       <c r="G28" s="5">
-        <f>MIN(G27,F28)+G7</f>
-        <v>672</v>
+        <f>MAX(G27,F28)+G7</f>
+        <v>916</v>
       </c>
       <c r="H28" s="5">
-        <f>MIN(H27,G28)+H7</f>
-        <v>680</v>
+        <f>MAX(H27,G28)+H7</f>
+        <v>938</v>
       </c>
       <c r="I28" s="5">
-        <f>MIN(I27,H28)+I7</f>
-        <v>712</v>
+        <f>MAX(I27,H28)+I7</f>
+        <v>1019</v>
       </c>
       <c r="J28" s="5">
-        <f>MIN(J27,I28)+J7</f>
-        <v>591</v>
+        <f>MAX(J27,I28)+J7</f>
+        <v>1081</v>
       </c>
       <c r="K28" s="5">
-        <f>MIN(K27,J28)+K7</f>
-        <v>624</v>
+        <f>MAX(K27,J28)+K7</f>
+        <v>1131</v>
       </c>
       <c r="L28" s="5">
-        <f>MIN(L27,K28)+L7</f>
-        <v>629</v>
+        <f>MAX(L27,K28)+L7</f>
+        <v>1157</v>
       </c>
       <c r="M28" s="5">
-        <f>MIN(M27,L28)+M7</f>
-        <v>641</v>
+        <f>MAX(M27,L28)+M7</f>
+        <v>1238</v>
       </c>
       <c r="N28" s="5">
-        <f>MIN(N27,M28)+N7</f>
-        <v>688</v>
+        <f>MAX(N27,M28)+N7</f>
+        <v>1285</v>
       </c>
       <c r="O28" s="5">
-        <f>MIN(O27,N28)+O7</f>
-        <v>721</v>
+        <f>MAX(O27,N28)+O7</f>
+        <v>1318</v>
       </c>
       <c r="P28" s="5">
-        <f>MIN(P27,O28)+P7</f>
-        <v>775</v>
+        <f>MAX(P27,O28)+P7</f>
+        <v>1372</v>
       </c>
       <c r="Q28" s="6">
-        <f>MIN(Q27,P28)+Q7</f>
-        <v>857</v>
+        <f>MAX(Q27,P28)+Q7</f>
+        <v>1454</v>
       </c>
       <c r="R28" s="19">
         <f t="shared" si="6"/>
-        <v>1082</v>
+        <v>1184</v>
       </c>
       <c r="S28" s="6">
-        <f>MIN(S27,R28)+S7</f>
-        <v>1147</v>
+        <f>MAX(S27,R28)+S7</f>
+        <v>1283</v>
       </c>
       <c r="T28" s="20">
-        <f t="shared" ref="T28:T35" si="7">T27+T7</f>
-        <v>1136</v>
+        <f t="shared" ref="T28:T35" si="8">T27+T7</f>
+        <v>1303</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2313,80 +2308,80 @@
         <v>450</v>
       </c>
       <c r="B29" s="5">
-        <f>MIN(B28,A29)+B8</f>
-        <v>446</v>
+        <f>MAX(B28,A29)+B8</f>
+        <v>524</v>
       </c>
       <c r="C29" s="5">
-        <f>MIN(C28,B29)+C8</f>
-        <v>475</v>
+        <f>MAX(C28,B29)+C8</f>
+        <v>603</v>
       </c>
       <c r="D29" s="5">
-        <f>MIN(D28,C29)+D8</f>
-        <v>491</v>
+        <f>MAX(D28,C29)+D8</f>
+        <v>622</v>
       </c>
       <c r="E29" s="14">
-        <f t="shared" si="5"/>
-        <v>584</v>
+        <f t="shared" si="7"/>
+        <v>689</v>
       </c>
       <c r="F29" s="5">
-        <f>MIN(F28,E29)+F8</f>
-        <v>618</v>
+        <f>MAX(F28,E29)+F8</f>
+        <v>814</v>
       </c>
       <c r="G29" s="5">
-        <f>MIN(G28,F29)+G8</f>
-        <v>695</v>
+        <f>MAX(G28,F29)+G8</f>
+        <v>993</v>
       </c>
       <c r="H29" s="5">
-        <f>MIN(H28,G29)+H8</f>
-        <v>702</v>
+        <f>MAX(H28,G29)+H8</f>
+        <v>1015</v>
       </c>
       <c r="I29" s="5">
-        <f>MIN(I28,H29)+I8</f>
-        <v>714</v>
+        <f>MAX(I28,H29)+I8</f>
+        <v>1031</v>
       </c>
       <c r="J29" s="5">
-        <f>MIN(J28,I29)+J8</f>
-        <v>609</v>
+        <f>MAX(J28,I29)+J8</f>
+        <v>1099</v>
       </c>
       <c r="K29" s="5">
-        <f>MIN(K28,J29)+K8</f>
-        <v>653</v>
+        <f>MAX(K28,J29)+K8</f>
+        <v>1175</v>
       </c>
       <c r="L29" s="5">
-        <f>MIN(L28,K29)+L8</f>
-        <v>653</v>
+        <f>MAX(L28,K29)+L8</f>
+        <v>1199</v>
       </c>
       <c r="M29" s="5">
-        <f>MIN(M28,L29)+M8</f>
-        <v>731</v>
+        <f>MAX(M28,L29)+M8</f>
+        <v>1328</v>
       </c>
       <c r="N29" s="5">
-        <f>MIN(N28,M29)+N8</f>
-        <v>703</v>
+        <f>MAX(N28,M29)+N8</f>
+        <v>1343</v>
       </c>
       <c r="O29" s="5">
-        <f>MIN(O28,N29)+O8</f>
-        <v>716</v>
+        <f>MAX(O28,N29)+O8</f>
+        <v>1356</v>
       </c>
       <c r="P29" s="5">
-        <f>MIN(P28,O29)+P8</f>
-        <v>794</v>
+        <f>MAX(P28,O29)+P8</f>
+        <v>1450</v>
       </c>
       <c r="Q29" s="6">
-        <f>MIN(Q28,P29)+Q8</f>
-        <v>888</v>
+        <f>MAX(Q28,P29)+Q8</f>
+        <v>1548</v>
       </c>
       <c r="R29" s="19">
         <f t="shared" si="6"/>
-        <v>1126</v>
+        <v>1228</v>
       </c>
       <c r="S29" s="6">
-        <f>MIN(S28,R29)+S8</f>
-        <v>1140</v>
+        <f>MAX(S28,R29)+S8</f>
+        <v>1297</v>
       </c>
       <c r="T29" s="20">
-        <f t="shared" si="7"/>
-        <v>1180</v>
+        <f t="shared" si="8"/>
+        <v>1347</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2395,80 +2390,80 @@
         <v>544</v>
       </c>
       <c r="B30" s="14">
-        <f t="shared" si="3"/>
-        <v>519</v>
+        <f t="shared" ref="B30:B34" si="9">B29+B9</f>
+        <v>597</v>
       </c>
       <c r="C30" s="5">
-        <f>MIN(C29,B30)+C9</f>
-        <v>536</v>
+        <f>MAX(C29,B30)+C9</f>
+        <v>664</v>
       </c>
       <c r="D30" s="5">
-        <f>MIN(D29,C30)+D9</f>
-        <v>555</v>
+        <f>MAX(D29,C30)+D9</f>
+        <v>728</v>
       </c>
       <c r="E30" s="14">
-        <f t="shared" si="5"/>
-        <v>626</v>
+        <f t="shared" si="7"/>
+        <v>731</v>
       </c>
       <c r="F30" s="5">
-        <f>MIN(F29,E30)+F9</f>
-        <v>674</v>
+        <f>MAX(F29,E30)+F9</f>
+        <v>870</v>
       </c>
       <c r="G30" s="5">
-        <f>MIN(G29,F30)+G9</f>
-        <v>763</v>
+        <f>MAX(G29,F30)+G9</f>
+        <v>1082</v>
       </c>
       <c r="H30" s="5">
-        <f>MIN(H29,G30)+H9</f>
-        <v>727</v>
+        <f>MAX(H29,G30)+H9</f>
+        <v>1107</v>
       </c>
       <c r="I30" s="5">
-        <f>MIN(I29,H30)+I9</f>
-        <v>746</v>
+        <f>MAX(I29,H30)+I9</f>
+        <v>1139</v>
       </c>
       <c r="J30" s="5">
-        <f>MIN(J29,I30)+J9</f>
-        <v>698</v>
+        <f>MAX(J29,I30)+J9</f>
+        <v>1228</v>
       </c>
       <c r="K30" s="5">
-        <f>MIN(K29,J30)+K9</f>
-        <v>675</v>
+        <f>MAX(K29,J30)+K9</f>
+        <v>1250</v>
       </c>
       <c r="L30" s="6">
-        <f>MIN(L29,K30)+L9</f>
-        <v>697</v>
+        <f>MAX(L29,K30)+L9</f>
+        <v>1294</v>
       </c>
       <c r="M30" s="19">
-        <f t="shared" ref="M30:M37" si="8">M29+M9</f>
-        <v>822</v>
+        <f t="shared" ref="M30:M37" si="10">M29+M9</f>
+        <v>1419</v>
       </c>
       <c r="N30" s="5">
-        <f>MIN(N29,M30)+N9</f>
-        <v>756</v>
+        <f>MAX(N29,M30)+N9</f>
+        <v>1472</v>
       </c>
       <c r="O30" s="5">
-        <f>MIN(O29,N30)+O9</f>
-        <v>790</v>
+        <f>MAX(O29,N30)+O9</f>
+        <v>1546</v>
       </c>
       <c r="P30" s="5">
-        <f>MIN(P29,O30)+P9</f>
-        <v>822</v>
+        <f>MAX(P29,O30)+P9</f>
+        <v>1578</v>
       </c>
       <c r="Q30" s="6">
-        <f>MIN(Q29,P30)+Q9</f>
-        <v>846</v>
+        <f>MAX(Q29,P30)+Q9</f>
+        <v>1602</v>
       </c>
       <c r="R30" s="19">
         <f t="shared" si="6"/>
-        <v>1139</v>
+        <v>1241</v>
       </c>
       <c r="S30" s="6">
-        <f>MIN(S29,R30)+S9</f>
-        <v>1206</v>
+        <f>MAX(S29,R30)+S9</f>
+        <v>1364</v>
       </c>
       <c r="T30" s="20">
-        <f t="shared" si="7"/>
-        <v>1266</v>
+        <f t="shared" si="8"/>
+        <v>1433</v>
       </c>
       <c r="W30">
         <v>2607</v>
@@ -2480,80 +2475,80 @@
         <v>575</v>
       </c>
       <c r="B31" s="14">
-        <f t="shared" si="3"/>
-        <v>599</v>
+        <f t="shared" si="9"/>
+        <v>677</v>
       </c>
       <c r="C31" s="5">
-        <f>MIN(C30,B31)+C10</f>
-        <v>563</v>
+        <f>MAX(C30,B31)+C10</f>
+        <v>704</v>
       </c>
       <c r="D31" s="5">
-        <f>MIN(D30,C31)+D10</f>
-        <v>634</v>
+        <f>MAX(D30,C31)+D10</f>
+        <v>807</v>
       </c>
       <c r="E31" s="15">
-        <f t="shared" si="5"/>
-        <v>698</v>
+        <f t="shared" si="7"/>
+        <v>803</v>
       </c>
       <c r="F31" s="8">
-        <f>MIN(F30,E31)+F10</f>
-        <v>724</v>
+        <f>MAX(F30,E31)+F10</f>
+        <v>920</v>
       </c>
       <c r="G31" s="8">
-        <f>MIN(G30,F31)+G10</f>
-        <v>759</v>
+        <f>MAX(G30,F31)+G10</f>
+        <v>1117</v>
       </c>
       <c r="H31" s="8">
-        <f>MIN(H30,G31)+H10</f>
-        <v>800</v>
+        <f>MAX(H30,G31)+H10</f>
+        <v>1190</v>
       </c>
       <c r="I31" s="8">
-        <f>MIN(I30,H31)+I10</f>
-        <v>816</v>
+        <f>MAX(I30,H31)+I10</f>
+        <v>1260</v>
       </c>
       <c r="J31" s="8">
-        <f>MIN(J30,I31)+J10</f>
-        <v>713</v>
+        <f>MAX(J30,I31)+J10</f>
+        <v>1275</v>
       </c>
       <c r="K31" s="5">
-        <f>MIN(K30,J31)+K10</f>
-        <v>724</v>
+        <f>MAX(K30,J31)+K10</f>
+        <v>1324</v>
       </c>
       <c r="L31" s="6">
-        <f>MIN(L30,K31)+L10</f>
-        <v>795</v>
+        <f>MAX(L30,K31)+L10</f>
+        <v>1422</v>
       </c>
       <c r="M31" s="19">
-        <f t="shared" si="8"/>
-        <v>838</v>
+        <f t="shared" si="10"/>
+        <v>1435</v>
       </c>
       <c r="N31" s="5">
-        <f>MIN(N30,M31)+N10</f>
-        <v>807</v>
+        <f>MAX(N30,M31)+N10</f>
+        <v>1523</v>
       </c>
       <c r="O31" s="8">
-        <f>MIN(O30,N31)+O10</f>
-        <v>859</v>
+        <f>MAX(O30,N31)+O10</f>
+        <v>1615</v>
       </c>
       <c r="P31" s="8">
-        <f>MIN(P30,O31)+P10</f>
-        <v>911</v>
+        <f>MAX(P30,O31)+P10</f>
+        <v>1704</v>
       </c>
       <c r="Q31" s="21">
-        <f>MIN(Q30,P31)+Q10</f>
-        <v>928</v>
+        <f>MAX(Q30,P31)+Q10</f>
+        <v>1786</v>
       </c>
       <c r="R31" s="19">
         <f t="shared" si="6"/>
-        <v>1193</v>
+        <v>1295</v>
       </c>
       <c r="S31" s="6">
-        <f>MIN(S30,R31)+S10</f>
-        <v>1284</v>
+        <f>MAX(S30,R31)+S10</f>
+        <v>1455</v>
       </c>
       <c r="T31" s="20">
-        <f t="shared" si="7"/>
-        <v>1289</v>
+        <f t="shared" si="8"/>
+        <v>1456</v>
       </c>
       <c r="W31">
         <v>928</v>
@@ -2565,821 +2560,840 @@
         <v>653</v>
       </c>
       <c r="B32" s="14">
-        <f t="shared" si="3"/>
-        <v>620</v>
+        <f t="shared" si="9"/>
+        <v>698</v>
       </c>
       <c r="C32" s="5">
-        <f>MIN(C31,B32)+C11</f>
-        <v>606</v>
+        <f>MAX(C31,B32)+C11</f>
+        <v>747</v>
       </c>
       <c r="D32" s="5">
-        <f>MIN(D31,C32)+D11</f>
-        <v>676</v>
+        <f>MAX(D31,C32)+D11</f>
+        <v>877</v>
       </c>
       <c r="E32" s="18">
-        <f t="shared" ref="E32:J32" si="9">D32+E11</f>
-        <v>727</v>
+        <f t="shared" ref="E32:J32" si="11">D32+E11</f>
+        <v>928</v>
       </c>
       <c r="F32" s="18">
-        <f t="shared" si="9"/>
-        <v>739</v>
+        <f t="shared" si="11"/>
+        <v>940</v>
       </c>
       <c r="G32" s="18">
-        <f t="shared" si="9"/>
-        <v>763</v>
+        <f t="shared" si="11"/>
+        <v>964</v>
       </c>
       <c r="H32" s="18">
-        <f t="shared" si="9"/>
-        <v>860</v>
+        <f t="shared" si="11"/>
+        <v>1061</v>
       </c>
       <c r="I32" s="18">
-        <f t="shared" si="9"/>
-        <v>877</v>
+        <f t="shared" si="11"/>
+        <v>1078</v>
       </c>
       <c r="J32" s="18">
-        <f t="shared" si="9"/>
-        <v>920</v>
+        <f t="shared" si="11"/>
+        <v>1121</v>
       </c>
       <c r="K32" s="5">
-        <f>MIN(K31,J32)+K11</f>
-        <v>789</v>
+        <f>MAX(K31,J32)+K11</f>
+        <v>1389</v>
       </c>
       <c r="L32" s="6">
-        <f>MIN(L31,K32)+L11</f>
-        <v>816</v>
+        <f>MAX(L31,K32)+L11</f>
+        <v>1449</v>
       </c>
       <c r="M32" s="19">
+        <f t="shared" si="10"/>
+        <v>1476</v>
+      </c>
+      <c r="N32" s="5">
+        <f>MAX(N31,M32)+N11</f>
+        <v>1559</v>
+      </c>
+      <c r="O32" s="18">
+        <f t="shared" ref="O32:Q32" si="12">N32+O11</f>
+        <v>1626</v>
+      </c>
+      <c r="P32" s="18">
+        <f t="shared" si="12"/>
+        <v>1696</v>
+      </c>
+      <c r="Q32" s="18">
+        <f t="shared" si="12"/>
+        <v>1777</v>
+      </c>
+      <c r="R32" s="5">
+        <f>MAX(R31,Q32)+R11</f>
+        <v>1828</v>
+      </c>
+      <c r="S32" s="6">
+        <f>MAX(S31,R32)+S11</f>
+        <v>1885</v>
+      </c>
+      <c r="T32" s="20">
         <f t="shared" si="8"/>
-        <v>879</v>
-      </c>
-      <c r="N32" s="5">
-        <f>MIN(N31,M32)+N11</f>
-        <v>843</v>
-      </c>
-      <c r="O32" s="18">
-        <f t="shared" ref="O32:Q32" si="10">N32+O11</f>
-        <v>910</v>
-      </c>
-      <c r="P32" s="18">
-        <f t="shared" si="10"/>
-        <v>980</v>
-      </c>
-      <c r="Q32" s="18">
-        <f t="shared" si="10"/>
-        <v>1061</v>
-      </c>
-      <c r="R32" s="5">
-        <f>MIN(R31,Q32)+R11</f>
-        <v>1112</v>
-      </c>
-      <c r="S32" s="6">
-        <f>MIN(S31,R32)+S11</f>
-        <v>1169</v>
-      </c>
-      <c r="T32" s="20">
-        <f t="shared" si="7"/>
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <f t="shared" si="3"/>
         <v>726</v>
       </c>
       <c r="B33" s="14">
-        <f t="shared" si="3"/>
-        <v>668</v>
+        <f t="shared" si="9"/>
+        <v>746</v>
       </c>
       <c r="C33" s="5">
-        <f>MIN(C32,B33)+C12</f>
-        <v>622</v>
+        <f>MAX(C32,B33)+C12</f>
+        <v>763</v>
       </c>
       <c r="D33" s="5">
-        <f>MIN(D32,C33)+D12</f>
-        <v>652</v>
+        <f>MAX(D32,C33)+D12</f>
+        <v>907</v>
       </c>
       <c r="E33" s="5">
-        <f>MIN(E32,D33)+E12</f>
-        <v>728</v>
+        <f>MAX(E32,D33)+E12</f>
+        <v>1004</v>
       </c>
       <c r="F33" s="5">
-        <f>MIN(F32,E33)+F12</f>
-        <v>815</v>
+        <f>MAX(F32,E33)+F12</f>
+        <v>1091</v>
       </c>
       <c r="G33" s="5">
-        <f>MIN(G32,F33)+G12</f>
-        <v>788</v>
+        <f>MAX(G32,F33)+G12</f>
+        <v>1116</v>
       </c>
       <c r="H33" s="5">
-        <f>MIN(H32,G33)+H12</f>
-        <v>820</v>
+        <f>MAX(H32,G33)+H12</f>
+        <v>1148</v>
       </c>
       <c r="I33" s="5">
-        <f>MIN(I32,H33)+I12</f>
-        <v>915</v>
+        <f>MAX(I32,H33)+I12</f>
+        <v>1243</v>
       </c>
       <c r="J33" s="5">
-        <f>MIN(J32,I33)+J12</f>
-        <v>975</v>
+        <f>MAX(J32,I33)+J12</f>
+        <v>1303</v>
       </c>
       <c r="K33" s="5">
-        <f>MIN(K32,J33)+K12</f>
-        <v>880</v>
+        <f>MAX(K32,J33)+K12</f>
+        <v>1480</v>
       </c>
       <c r="L33" s="6">
-        <f>MIN(L32,K33)+L12</f>
-        <v>886</v>
+        <f>MAX(L32,K33)+L12</f>
+        <v>1550</v>
       </c>
       <c r="M33" s="19">
+        <f t="shared" si="10"/>
+        <v>1539</v>
+      </c>
+      <c r="N33" s="5">
+        <f>MAX(N32,M33)+N12</f>
+        <v>1625</v>
+      </c>
+      <c r="O33" s="5">
+        <f>MAX(O32,N33)+O12</f>
+        <v>1681</v>
+      </c>
+      <c r="P33" s="5">
+        <f>MAX(P32,O33)+P12</f>
+        <v>1792</v>
+      </c>
+      <c r="Q33" s="5">
+        <f>MAX(Q32,P33)+Q12</f>
+        <v>1832</v>
+      </c>
+      <c r="R33" s="5">
+        <f>MAX(R32,Q33)+R12</f>
+        <v>1859</v>
+      </c>
+      <c r="S33" s="6">
+        <f>MAX(S32,R33)+S12</f>
+        <v>1934</v>
+      </c>
+      <c r="T33" s="20">
         <f t="shared" si="8"/>
-        <v>942</v>
-      </c>
-      <c r="N33" s="5">
-        <f>MIN(N32,M33)+N12</f>
-        <v>909</v>
-      </c>
-      <c r="O33" s="5">
-        <f>MIN(O32,N33)+O12</f>
-        <v>964</v>
-      </c>
-      <c r="P33" s="5">
-        <f>MIN(P32,O33)+P12</f>
-        <v>1060</v>
-      </c>
-      <c r="Q33" s="5">
-        <f>MIN(Q32,P33)+Q12</f>
-        <v>1100</v>
-      </c>
-      <c r="R33" s="5">
-        <f>MIN(R32,Q33)+R12</f>
-        <v>1127</v>
-      </c>
-      <c r="S33" s="6">
-        <f>MIN(S32,R33)+S12</f>
-        <v>1176</v>
-      </c>
-      <c r="T33" s="20">
-        <f t="shared" si="7"/>
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
         <f t="shared" si="3"/>
         <v>787</v>
       </c>
       <c r="B34" s="15">
-        <f t="shared" si="3"/>
-        <v>745</v>
+        <f t="shared" si="9"/>
+        <v>823</v>
       </c>
       <c r="C34" s="8">
-        <f>MIN(C33,B34)+C13</f>
-        <v>654</v>
+        <f>MAX(C33,B34)+C13</f>
+        <v>855</v>
       </c>
       <c r="D34" s="8">
-        <f>MIN(D33,C34)+D13</f>
-        <v>745</v>
+        <f>MAX(D33,C34)+D13</f>
+        <v>1000</v>
       </c>
       <c r="E34" s="8">
-        <f>MIN(E33,D34)+E13</f>
-        <v>774</v>
+        <f>MAX(E33,D34)+E13</f>
+        <v>1050</v>
       </c>
       <c r="F34" s="8">
-        <f>MIN(F33,E34)+F13</f>
-        <v>841</v>
+        <f>MAX(F33,E34)+F13</f>
+        <v>1158</v>
       </c>
       <c r="G34" s="8">
-        <f>MIN(G33,F34)+G13</f>
-        <v>858</v>
+        <f>MAX(G33,F34)+G13</f>
+        <v>1228</v>
       </c>
       <c r="H34" s="5">
-        <f>MIN(H33,G34)+H13</f>
-        <v>916</v>
+        <f>MAX(H33,G34)+H13</f>
+        <v>1324</v>
       </c>
       <c r="I34" s="5">
-        <f>MIN(I33,H34)+I13</f>
-        <v>937</v>
+        <f>MAX(I33,H34)+I13</f>
+        <v>1346</v>
       </c>
       <c r="J34" s="5">
-        <f>MIN(J33,I34)+J13</f>
-        <v>1000</v>
+        <f>MAX(J33,I34)+J13</f>
+        <v>1409</v>
       </c>
       <c r="K34" s="5">
-        <f>MIN(K33,J34)+K13</f>
-        <v>898</v>
+        <f>MAX(K33,J34)+K13</f>
+        <v>1498</v>
       </c>
       <c r="L34" s="6">
-        <f>MIN(L33,K34)+L13</f>
-        <v>963</v>
+        <f>MAX(L33,K34)+L13</f>
+        <v>1627</v>
       </c>
       <c r="M34" s="19">
+        <f t="shared" si="10"/>
+        <v>1593</v>
+      </c>
+      <c r="N34" s="5">
+        <f>MAX(N33,M34)+N13</f>
+        <v>1643</v>
+      </c>
+      <c r="O34" s="5">
+        <f>MAX(O33,N34)+O13</f>
+        <v>1772</v>
+      </c>
+      <c r="P34" s="5">
+        <f>MAX(P33,O34)+P13</f>
+        <v>1820</v>
+      </c>
+      <c r="Q34" s="5">
+        <f>MAX(Q33,P34)+Q13</f>
+        <v>1892</v>
+      </c>
+      <c r="R34" s="5">
+        <f>MAX(R33,Q34)+R13</f>
+        <v>1986</v>
+      </c>
+      <c r="S34" s="6">
+        <f>MAX(S33,R34)+S13</f>
+        <v>2058</v>
+      </c>
+      <c r="T34" s="20">
         <f t="shared" si="8"/>
-        <v>996</v>
-      </c>
-      <c r="N34" s="5">
-        <f>MIN(N33,M34)+N13</f>
-        <v>927</v>
-      </c>
-      <c r="O34" s="5">
-        <f>MIN(O33,N34)+O13</f>
-        <v>1018</v>
-      </c>
-      <c r="P34" s="5">
-        <f>MIN(P33,O34)+P13</f>
-        <v>1046</v>
-      </c>
-      <c r="Q34" s="5">
-        <f>MIN(Q33,P34)+Q13</f>
-        <v>1106</v>
-      </c>
-      <c r="R34" s="5">
-        <f>MIN(R33,Q34)+R13</f>
-        <v>1200</v>
-      </c>
-      <c r="S34" s="6">
-        <f>MIN(S33,R34)+S13</f>
-        <v>1248</v>
-      </c>
-      <c r="T34" s="20">
-        <f t="shared" si="7"/>
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16">
         <f t="shared" si="3"/>
         <v>879</v>
       </c>
       <c r="B35" s="18">
-        <f t="shared" ref="B35:G35" si="11">A35+B14</f>
+        <f t="shared" ref="B35:G35" si="13">A35+B14</f>
         <v>931</v>
       </c>
       <c r="C35" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>951</v>
       </c>
       <c r="D35" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1010</v>
       </c>
       <c r="E35" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1080</v>
       </c>
       <c r="F35" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1138</v>
       </c>
       <c r="G35" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1226</v>
       </c>
       <c r="H35" s="5">
-        <f>MIN(H34,G35)+H14</f>
-        <v>953</v>
+        <f>MAX(H34,G35)+H14</f>
+        <v>1361</v>
       </c>
       <c r="I35" s="5">
-        <f>MIN(I34,H35)+I14</f>
-        <v>960</v>
+        <f>MAX(I34,H35)+I14</f>
+        <v>1384</v>
       </c>
       <c r="J35" s="5">
-        <f>MIN(J34,I35)+J14</f>
-        <v>1035</v>
+        <f>MAX(J34,I35)+J14</f>
+        <v>1484</v>
       </c>
       <c r="K35" s="5">
-        <f>MIN(K34,J35)+K14</f>
-        <v>947</v>
+        <f>MAX(K34,J35)+K14</f>
+        <v>1547</v>
       </c>
       <c r="L35" s="6">
-        <f>MIN(L34,K35)+L14</f>
-        <v>1027</v>
+        <f>MAX(L34,K35)+L14</f>
+        <v>1707</v>
       </c>
       <c r="M35" s="19">
+        <f t="shared" si="10"/>
+        <v>1669</v>
+      </c>
+      <c r="N35" s="5">
+        <f>MAX(N34,M35)+N14</f>
+        <v>1687</v>
+      </c>
+      <c r="O35" s="5">
+        <f>MAX(O34,N35)+O14</f>
+        <v>1834</v>
+      </c>
+      <c r="P35" s="5">
+        <f>MAX(P34,O35)+P14</f>
+        <v>1872</v>
+      </c>
+      <c r="Q35" s="8">
+        <f>MAX(Q34,P35)+Q14</f>
+        <v>1939</v>
+      </c>
+      <c r="R35" s="8">
+        <f>MAX(R34,Q35)+R14</f>
+        <v>2054</v>
+      </c>
+      <c r="S35" s="21">
+        <f>MAX(S34,R35)+S14</f>
+        <v>2154</v>
+      </c>
+      <c r="T35" s="20">
         <f t="shared" si="8"/>
-        <v>1072</v>
-      </c>
-      <c r="N35" s="5">
-        <f>MIN(N34,M35)+N14</f>
-        <v>945</v>
-      </c>
-      <c r="O35" s="5">
-        <f>MIN(O34,N35)+O14</f>
-        <v>1007</v>
-      </c>
-      <c r="P35" s="5">
-        <f>MIN(P34,O35)+P14</f>
-        <v>1045</v>
-      </c>
-      <c r="Q35" s="8">
-        <f>MIN(Q34,P35)+Q14</f>
-        <v>1092</v>
-      </c>
-      <c r="R35" s="8">
-        <f>MIN(R34,Q35)+R14</f>
-        <v>1160</v>
-      </c>
-      <c r="S35" s="21">
-        <f>MIN(S34,R35)+S14</f>
-        <v>1256</v>
-      </c>
-      <c r="T35" s="20">
-        <f t="shared" si="7"/>
-        <v>1584</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <f t="shared" si="3"/>
         <v>974</v>
       </c>
       <c r="B36" s="5">
-        <f>MIN(B35,A36)+B15</f>
-        <v>965</v>
+        <f>MAX(B35,A36)+B15</f>
+        <v>1008</v>
       </c>
       <c r="C36" s="5">
-        <f>MIN(C35,B36)+C15</f>
-        <v>1036</v>
+        <f>MAX(C35,B36)+C15</f>
+        <v>1093</v>
       </c>
       <c r="D36" s="5">
-        <f>MIN(D35,C36)+D15</f>
-        <v>1025</v>
+        <f>MAX(D35,C36)+D15</f>
+        <v>1108</v>
       </c>
       <c r="E36" s="5">
-        <f>MIN(E35,D36)+E15</f>
-        <v>1079</v>
+        <f>MAX(E35,D36)+E15</f>
+        <v>1162</v>
       </c>
       <c r="F36" s="5">
-        <f>MIN(F35,E36)+F15</f>
-        <v>1161</v>
+        <f>MAX(F35,E36)+F15</f>
+        <v>1244</v>
       </c>
       <c r="G36" s="5">
-        <f>MIN(G35,F36)+G15</f>
-        <v>1208</v>
+        <f>MAX(G35,F36)+G15</f>
+        <v>1291</v>
       </c>
       <c r="H36" s="5">
-        <f>MIN(H35,G36)+H15</f>
-        <v>992</v>
+        <f>MAX(H35,G36)+H15</f>
+        <v>1400</v>
       </c>
       <c r="I36" s="5">
-        <f>MIN(I35,H36)+I15</f>
-        <v>1023</v>
+        <f>MAX(I35,H36)+I15</f>
+        <v>1463</v>
       </c>
       <c r="J36" s="5">
-        <f>MIN(J35,I36)+J15</f>
-        <v>1041</v>
+        <f>MAX(J35,I36)+J15</f>
+        <v>1502</v>
       </c>
       <c r="K36" s="5">
-        <f>MIN(K35,J36)+K15</f>
-        <v>1032</v>
+        <f>MAX(K35,J36)+K15</f>
+        <v>1632</v>
       </c>
       <c r="L36" s="6">
-        <f>MIN(L35,K36)+L15</f>
-        <v>1085</v>
+        <f>MAX(L35,K36)+L15</f>
+        <v>1765</v>
       </c>
       <c r="M36" s="19">
-        <f t="shared" si="8"/>
-        <v>1148</v>
+        <f t="shared" si="10"/>
+        <v>1745</v>
       </c>
       <c r="N36" s="5">
-        <f>MIN(N35,M36)+N15</f>
-        <v>1037</v>
+        <f>MAX(N35,M36)+N15</f>
+        <v>1837</v>
       </c>
       <c r="O36" s="5">
-        <f>MIN(O35,N36)+O15</f>
-        <v>1096</v>
+        <f>MAX(O35,N36)+O15</f>
+        <v>1926</v>
       </c>
       <c r="P36" s="5">
-        <f>MIN(P35,O36)+P15</f>
-        <v>1073</v>
+        <f>MAX(P35,O36)+P15</f>
+        <v>1954</v>
       </c>
       <c r="Q36" s="18">
-        <f t="shared" ref="Q36:S36" si="12">P36+Q15</f>
-        <v>1108</v>
+        <f t="shared" ref="Q36:S36" si="14">P36+Q15</f>
+        <v>1989</v>
       </c>
       <c r="R36" s="18">
-        <f t="shared" si="12"/>
-        <v>1126</v>
+        <f t="shared" si="14"/>
+        <v>2007</v>
       </c>
       <c r="S36" s="18">
-        <f t="shared" si="12"/>
-        <v>1198</v>
+        <f t="shared" si="14"/>
+        <v>2079</v>
       </c>
       <c r="T36" s="6">
-        <f>MIN(T35,S36)+T15</f>
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f>MAX(T35,S36)+T15</f>
+        <v>2133</v>
+      </c>
+      <c r="W36">
+        <f>MAX(L37,Q31,S35,T41)</f>
+        <v>2607</v>
+      </c>
+      <c r="X36">
+        <v>928</v>
+      </c>
+      <c r="AB36">
+        <f>2607+S35</f>
+        <v>4761</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16">
         <f t="shared" si="3"/>
         <v>1025</v>
       </c>
       <c r="B37" s="5">
-        <f>MIN(B36,A37)+B16</f>
-        <v>980</v>
+        <f>MAX(B36,A37)+B16</f>
+        <v>1040</v>
       </c>
       <c r="C37" s="5">
-        <f>MIN(C36,B37)+C16</f>
-        <v>1007</v>
+        <f>MAX(C36,B37)+C16</f>
+        <v>1120</v>
       </c>
       <c r="D37" s="5">
-        <f>MIN(D36,C37)+D16</f>
-        <v>1066</v>
+        <f>MAX(D36,C37)+D16</f>
+        <v>1179</v>
       </c>
       <c r="E37" s="5">
-        <f>MIN(E36,D37)+E16</f>
-        <v>1103</v>
+        <f>MAX(E36,D37)+E16</f>
+        <v>1216</v>
       </c>
       <c r="F37" s="5">
-        <f>MIN(F36,E37)+F16</f>
-        <v>1151</v>
+        <f>MAX(F36,E37)+F16</f>
+        <v>1292</v>
       </c>
       <c r="G37" s="5">
-        <f>MIN(G36,F37)+G16</f>
-        <v>1184</v>
+        <f>MAX(G36,F37)+G16</f>
+        <v>1325</v>
       </c>
       <c r="H37" s="5">
-        <f>MIN(H36,G37)+H16</f>
-        <v>1081</v>
+        <f>MAX(H36,G37)+H16</f>
+        <v>1489</v>
       </c>
       <c r="I37" s="5">
-        <f>MIN(I36,H37)+I16</f>
-        <v>1089</v>
+        <f>MAX(I36,H37)+I16</f>
+        <v>1555</v>
       </c>
       <c r="J37" s="8">
-        <f>MIN(J36,I37)+J16</f>
-        <v>1085</v>
+        <f>MAX(J36,I37)+J16</f>
+        <v>1599</v>
       </c>
       <c r="K37" s="8">
-        <f>MIN(K36,J37)+K16</f>
-        <v>1077</v>
+        <f>MAX(K36,J37)+K16</f>
+        <v>1677</v>
       </c>
       <c r="L37" s="21">
-        <f>MIN(L36,K37)+L16</f>
-        <v>1136</v>
+        <f>MAX(L36,K37)+L16</f>
+        <v>1824</v>
       </c>
       <c r="M37" s="19">
-        <f t="shared" si="8"/>
-        <v>1200</v>
+        <f t="shared" si="10"/>
+        <v>1797</v>
       </c>
       <c r="N37" s="5">
-        <f>MIN(N36,M37)+N16</f>
-        <v>1093</v>
+        <f>MAX(N36,M37)+N16</f>
+        <v>1893</v>
       </c>
       <c r="O37" s="5">
-        <f>MIN(O36,N37)+O16</f>
-        <v>1175</v>
+        <f>MAX(O36,N37)+O16</f>
+        <v>2008</v>
       </c>
       <c r="P37" s="5">
-        <f>MIN(P36,O37)+P16</f>
-        <v>1133</v>
+        <f>MAX(P36,O37)+P16</f>
+        <v>2068</v>
       </c>
       <c r="Q37" s="5">
-        <f>MIN(Q36,P37)+Q16</f>
-        <v>1121</v>
+        <f>MAX(Q36,P37)+Q16</f>
+        <v>2081</v>
       </c>
       <c r="R37" s="5">
-        <f>MIN(R36,Q37)+R16</f>
-        <v>1181</v>
+        <f>MAX(R36,Q37)+R16</f>
+        <v>2141</v>
       </c>
       <c r="S37" s="5">
-        <f>MIN(S36,R37)+S16</f>
-        <v>1247</v>
+        <f>MAX(S36,R37)+S16</f>
+        <v>2207</v>
       </c>
       <c r="T37" s="6">
-        <f>MIN(T36,S37)+T16</f>
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <f>MAX(T36,S37)+T16</f>
+        <v>2229</v>
+      </c>
+      <c r="W37">
+        <f>2*W36</f>
+        <v>5214</v>
+      </c>
+      <c r="X37">
+        <f>2*X36</f>
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <f t="shared" si="3"/>
         <v>1087</v>
       </c>
       <c r="B38" s="5">
-        <f>MIN(B37,A38)+B17</f>
-        <v>1050</v>
+        <f>MAX(B37,A38)+B17</f>
+        <v>1157</v>
       </c>
       <c r="C38" s="5">
-        <f>MIN(C37,B38)+C17</f>
-        <v>1044</v>
+        <f>MAX(C37,B38)+C17</f>
+        <v>1194</v>
       </c>
       <c r="D38" s="5">
-        <f>MIN(D37,C38)+D17</f>
-        <v>1097</v>
+        <f>MAX(D37,C38)+D17</f>
+        <v>1247</v>
       </c>
       <c r="E38" s="5">
-        <f>MIN(E37,D38)+E17</f>
-        <v>1126</v>
+        <f>MAX(E37,D38)+E17</f>
+        <v>1276</v>
       </c>
       <c r="F38" s="5">
-        <f>MIN(F37,E38)+F17</f>
-        <v>1204</v>
+        <f>MAX(F37,E38)+F17</f>
+        <v>1370</v>
       </c>
       <c r="G38" s="5">
-        <f>MIN(G37,F38)+G17</f>
-        <v>1231</v>
+        <f>MAX(G37,F38)+G17</f>
+        <v>1417</v>
       </c>
       <c r="H38" s="5">
-        <f>MIN(H37,G38)+H17</f>
-        <v>1177</v>
+        <f>MAX(H37,G38)+H17</f>
+        <v>1585</v>
       </c>
       <c r="I38" s="5">
-        <f>MIN(I37,H38)+I17</f>
-        <v>1115</v>
+        <f>MAX(I37,H38)+I17</f>
+        <v>1611</v>
       </c>
       <c r="J38" s="18">
-        <f t="shared" ref="J38:L38" si="13">I38+J17</f>
-        <v>1149</v>
+        <f t="shared" ref="J38:L38" si="15">I38+J17</f>
+        <v>1645</v>
       </c>
       <c r="K38" s="18">
-        <f t="shared" si="13"/>
-        <v>1172</v>
+        <f t="shared" si="15"/>
+        <v>1668</v>
       </c>
       <c r="L38" s="18">
-        <f t="shared" si="13"/>
-        <v>1235</v>
+        <f t="shared" si="15"/>
+        <v>1731</v>
       </c>
       <c r="M38" s="5">
-        <f>MIN(M37,L38)+M17</f>
-        <v>1263</v>
+        <f>MAX(M37,L38)+M17</f>
+        <v>1860</v>
       </c>
       <c r="N38" s="5">
-        <f>MIN(N37,M38)+N17</f>
-        <v>1105</v>
+        <f>MAX(N37,M38)+N17</f>
+        <v>1905</v>
       </c>
       <c r="O38" s="5">
-        <f>MIN(O37,N38)+O17</f>
-        <v>1154</v>
+        <f>MAX(O37,N38)+O17</f>
+        <v>2057</v>
       </c>
       <c r="P38" s="5">
-        <f>MIN(P37,O38)+P17</f>
-        <v>1230</v>
+        <f>MAX(P37,O38)+P17</f>
+        <v>2165</v>
       </c>
       <c r="Q38" s="5">
-        <f>MIN(Q37,P38)+Q17</f>
-        <v>1187</v>
+        <f>MAX(Q37,P38)+Q17</f>
+        <v>2231</v>
       </c>
       <c r="R38" s="5">
-        <f>MIN(R37,Q38)+R17</f>
-        <v>1226</v>
+        <f>MAX(R37,Q38)+R17</f>
+        <v>2276</v>
       </c>
       <c r="S38" s="5">
-        <f>MIN(S37,R38)+S17</f>
-        <v>1245</v>
+        <f>MAX(S37,R38)+S17</f>
+        <v>2295</v>
       </c>
       <c r="T38" s="6">
-        <f>MIN(T37,S38)+T17</f>
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <f>MAX(T37,S38)+T17</f>
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
         <f t="shared" si="3"/>
         <v>1108</v>
       </c>
       <c r="B39" s="5">
-        <f>MIN(B38,A39)+B18</f>
-        <v>1080</v>
+        <f>MAX(B38,A39)+B18</f>
+        <v>1187</v>
       </c>
       <c r="C39" s="5">
-        <f>MIN(C38,B39)+C18</f>
-        <v>1074</v>
+        <f>MAX(C38,B39)+C18</f>
+        <v>1224</v>
       </c>
       <c r="D39" s="5">
-        <f>MIN(D38,C39)+D18</f>
-        <v>1118</v>
+        <f>MAX(D38,C39)+D18</f>
+        <v>1291</v>
       </c>
       <c r="E39" s="5">
-        <f>MIN(E38,D39)+E18</f>
-        <v>1215</v>
+        <f>MAX(E38,D39)+E18</f>
+        <v>1388</v>
       </c>
       <c r="F39" s="5">
-        <f>MIN(F38,E39)+F18</f>
-        <v>1224</v>
+        <f>MAX(F38,E39)+F18</f>
+        <v>1408</v>
       </c>
       <c r="G39" s="5">
-        <f>MIN(G38,F39)+G18</f>
-        <v>1287</v>
+        <f>MAX(G38,F39)+G18</f>
+        <v>1480</v>
       </c>
       <c r="H39" s="5">
-        <f>MIN(H38,G39)+H18</f>
-        <v>1209</v>
+        <f>MAX(H38,G39)+H18</f>
+        <v>1617</v>
       </c>
       <c r="I39" s="5">
-        <f>MIN(I38,H39)+I18</f>
-        <v>1199</v>
+        <f>MAX(I38,H39)+I18</f>
+        <v>1701</v>
       </c>
       <c r="J39" s="5">
-        <f>MIN(J38,I39)+J18</f>
-        <v>1209</v>
+        <f>MAX(J38,I39)+J18</f>
+        <v>1761</v>
       </c>
       <c r="K39" s="5">
-        <f>MIN(K38,J39)+K18</f>
-        <v>1206</v>
+        <f>MAX(K38,J39)+K18</f>
+        <v>1795</v>
       </c>
       <c r="L39" s="5">
-        <f>MIN(L38,K39)+L18</f>
-        <v>1299</v>
+        <f>MAX(L38,K39)+L18</f>
+        <v>1888</v>
       </c>
       <c r="M39" s="5">
-        <f>MIN(M38,L39)+M18</f>
-        <v>1276</v>
+        <f>MAX(M38,L39)+M18</f>
+        <v>1901</v>
       </c>
       <c r="N39" s="5">
-        <f>MIN(N38,M39)+N18</f>
-        <v>1186</v>
+        <f>MAX(N38,M39)+N18</f>
+        <v>1986</v>
       </c>
       <c r="O39" s="5">
-        <f>MIN(O38,N39)+O18</f>
-        <v>1236</v>
+        <f>MAX(O38,N39)+O18</f>
+        <v>2139</v>
       </c>
       <c r="P39" s="5">
-        <f>MIN(P38,O39)+P18</f>
-        <v>1285</v>
+        <f>MAX(P38,O39)+P18</f>
+        <v>2220</v>
       </c>
       <c r="Q39" s="5">
-        <f>MIN(Q38,P39)+Q18</f>
-        <v>1240</v>
+        <f>MAX(Q38,P39)+Q18</f>
+        <v>2284</v>
       </c>
       <c r="R39" s="5">
-        <f>MIN(R38,Q39)+R18</f>
-        <v>1315</v>
+        <f>MAX(R38,Q39)+R18</f>
+        <v>2373</v>
       </c>
       <c r="S39" s="5">
-        <f>MIN(S38,R39)+S18</f>
-        <v>1320</v>
+        <f>MAX(S38,R39)+S18</f>
+        <v>2448</v>
       </c>
       <c r="T39" s="6">
-        <f>MIN(T38,S39)+T18</f>
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <f>MAX(T38,S39)+T18</f>
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
         <f t="shared" si="3"/>
         <v>1166</v>
       </c>
       <c r="B40" s="5">
-        <f>MIN(B39,A40)+B19</f>
-        <v>1113</v>
+        <f>MAX(B39,A40)+B19</f>
+        <v>1220</v>
       </c>
       <c r="C40" s="5">
-        <f>MIN(C39,B40)+C19</f>
-        <v>1163</v>
+        <f>MAX(C39,B40)+C19</f>
+        <v>1313</v>
       </c>
       <c r="D40" s="5">
-        <f>MIN(D39,C40)+D19</f>
-        <v>1189</v>
+        <f>MAX(D39,C40)+D19</f>
+        <v>1384</v>
       </c>
       <c r="E40" s="5">
-        <f>MIN(E39,D40)+E19</f>
-        <v>1236</v>
+        <f>MAX(E39,D40)+E19</f>
+        <v>1435</v>
       </c>
       <c r="F40" s="5">
-        <f>MIN(F39,E40)+F19</f>
-        <v>1271</v>
+        <f>MAX(F39,E40)+F19</f>
+        <v>1482</v>
       </c>
       <c r="G40" s="5">
-        <f>MIN(G39,F40)+G19</f>
-        <v>1308</v>
+        <f>MAX(G39,F40)+G19</f>
+        <v>1519</v>
       </c>
       <c r="H40" s="5">
-        <f>MIN(H39,G40)+H19</f>
-        <v>1222</v>
+        <f>MAX(H39,G40)+H19</f>
+        <v>1630</v>
       </c>
       <c r="I40" s="5">
-        <f>MIN(I39,H40)+I19</f>
-        <v>1290</v>
+        <f>MAX(I39,H40)+I19</f>
+        <v>1792</v>
       </c>
       <c r="J40" s="5">
-        <f>MIN(J39,I40)+J19</f>
-        <v>1287</v>
+        <f>MAX(J39,I40)+J19</f>
+        <v>1870</v>
       </c>
       <c r="K40" s="5">
-        <f>MIN(K39,J40)+K19</f>
-        <v>1239</v>
+        <f>MAX(K39,J40)+K19</f>
+        <v>1903</v>
       </c>
       <c r="L40" s="5">
-        <f>MIN(L39,K40)+L19</f>
-        <v>1337</v>
+        <f>MAX(L39,K40)+L19</f>
+        <v>2001</v>
       </c>
       <c r="M40" s="5">
-        <f>MIN(M39,L40)+M19</f>
-        <v>1325</v>
+        <f>MAX(M39,L40)+M19</f>
+        <v>2050</v>
       </c>
       <c r="N40" s="5">
-        <f>MIN(N39,M40)+N19</f>
-        <v>1210</v>
+        <f>MAX(N39,M40)+N19</f>
+        <v>2074</v>
       </c>
       <c r="O40" s="5">
-        <f>MIN(O39,N40)+O19</f>
-        <v>1259</v>
+        <f>MAX(O39,N40)+O19</f>
+        <v>2188</v>
       </c>
       <c r="P40" s="5">
-        <f>MIN(P39,O40)+P19</f>
-        <v>1285</v>
+        <f>MAX(P39,O40)+P19</f>
+        <v>2246</v>
       </c>
       <c r="Q40" s="5">
-        <f>MIN(Q39,P40)+Q19</f>
-        <v>1293</v>
+        <f>MAX(Q39,P40)+Q19</f>
+        <v>2337</v>
       </c>
       <c r="R40" s="5">
-        <f>MIN(R39,Q40)+R19</f>
-        <v>1325</v>
+        <f>MAX(R39,Q40)+R19</f>
+        <v>2405</v>
       </c>
       <c r="S40" s="5">
-        <f>MIN(S39,R40)+S19</f>
-        <v>1418</v>
+        <f>MAX(S39,R40)+S19</f>
+        <v>2546</v>
       </c>
       <c r="T40" s="6">
-        <f>MIN(T39,S40)+T19</f>
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f>MAX(T39,S40)+T19</f>
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="17">
         <f t="shared" si="3"/>
         <v>1256</v>
       </c>
       <c r="B41" s="8">
-        <f>MIN(B40,A41)+B20</f>
-        <v>1164</v>
+        <f>MAX(B40,A41)+B20</f>
+        <v>1307</v>
       </c>
       <c r="C41" s="8">
-        <f>MIN(C40,B41)+C20</f>
-        <v>1177</v>
+        <f>MAX(C40,B41)+C20</f>
+        <v>1327</v>
       </c>
       <c r="D41" s="8">
-        <f>MIN(D40,C41)+D20</f>
-        <v>1268</v>
+        <f>MAX(D40,C41)+D20</f>
+        <v>1475</v>
       </c>
       <c r="E41" s="8">
-        <f>MIN(E40,D41)+E20</f>
-        <v>1294</v>
+        <f>MAX(E40,D41)+E20</f>
+        <v>1533</v>
       </c>
       <c r="F41" s="8">
-        <f>MIN(F40,E41)+F20</f>
-        <v>1328</v>
+        <f>MAX(F40,E41)+F20</f>
+        <v>1590</v>
       </c>
       <c r="G41" s="8">
-        <f>MIN(G40,F41)+G20</f>
-        <v>1341</v>
+        <f>MAX(G40,F41)+G20</f>
+        <v>1623</v>
       </c>
       <c r="H41" s="8">
-        <f>MIN(H40,G41)+H20</f>
-        <v>1264</v>
+        <f>MAX(H40,G41)+H20</f>
+        <v>1672</v>
       </c>
       <c r="I41" s="8">
-        <f>MIN(I40,H41)+I20</f>
-        <v>1286</v>
+        <f>MAX(I40,H41)+I20</f>
+        <v>1814</v>
       </c>
       <c r="J41" s="8">
-        <f>MIN(J40,I41)+J20</f>
-        <v>1368</v>
+        <f>MAX(J40,I41)+J20</f>
+        <v>1952</v>
       </c>
       <c r="K41" s="8">
-        <f>MIN(K40,J41)+K20</f>
-        <v>1292</v>
+        <f>MAX(K40,J41)+K20</f>
+        <v>2005</v>
       </c>
       <c r="L41" s="8">
-        <f>MIN(L40,K41)+L20</f>
-        <v>1315</v>
+        <f>MAX(L40,K41)+L20</f>
+        <v>2028</v>
       </c>
       <c r="M41" s="8">
-        <f>MIN(M40,L41)+M20</f>
-        <v>1346</v>
+        <f>MAX(M40,L41)+M20</f>
+        <v>2081</v>
       </c>
       <c r="N41" s="8">
-        <f>MIN(N40,M41)+N20</f>
-        <v>1239</v>
+        <f>MAX(N40,M41)+N20</f>
+        <v>2110</v>
       </c>
       <c r="O41" s="8">
-        <f>MIN(O40,N41)+O20</f>
-        <v>1312</v>
+        <f>MAX(O40,N41)+O20</f>
+        <v>2261</v>
       </c>
       <c r="P41" s="8">
-        <f>MIN(P40,O41)+P20</f>
-        <v>1366</v>
+        <f>MAX(P40,O41)+P20</f>
+        <v>2342</v>
       </c>
       <c r="Q41" s="8">
-        <f>MIN(Q40,P41)+Q20</f>
-        <v>1339</v>
+        <f>MAX(Q40,P41)+Q20</f>
+        <v>2388</v>
       </c>
       <c r="R41" s="8">
-        <f>MIN(R40,Q41)+R20</f>
-        <v>1371</v>
+        <f>MAX(R40,Q41)+R20</f>
+        <v>2451</v>
       </c>
       <c r="S41" s="8">
-        <f>MIN(S40,R41)+S20</f>
-        <v>1386</v>
+        <f>MAX(S40,R41)+S20</f>
+        <v>2561</v>
       </c>
       <c r="T41" s="21">
-        <f>MIN(T40,S41)+T20</f>
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <f>MAX(T40,S41)+T20</f>
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
